--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,7 +814,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="30">
+    <row r="16" spans="1:22">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>

--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>Vrms</t>
   </si>
@@ -79,6 +79,36 @@
   </si>
   <si>
     <t>VDC</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>Version DC</t>
+  </si>
+  <si>
+    <t>Obtenidos</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t>Final DC</t>
+  </si>
+  <si>
+    <t>V-</t>
+  </si>
+  <si>
+    <t>VDC+</t>
+  </si>
+  <si>
+    <t>VDC-</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Voltaje DC</t>
   </si>
 </sst>
 </file>
@@ -102,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,11 +140,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -124,6 +169,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,346 +493,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="5" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="15" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>119.99</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <f>(2)^0.5*B3*2</f>
-        <v>339.38297069829537</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <f>E3/100</f>
-        <v>3.3938297069829537</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1.8159000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.6181000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.7509999999999999</v>
+        <v>119.99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>5.3708999999999998</v>
+        <f>(2)^0.5*B4*2</f>
+        <v>339.38297069829537</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H4">
-        <f>H3</f>
-        <v>3.3938297069829537</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="1">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4">
-        <f>R4</f>
-        <v>0.24879999999999999</v>
-      </c>
+        <f>E4</f>
+        <v>339.38297069829537</v>
+      </c>
+      <c r="K4">
+        <f>H4/2</f>
+        <v>169.69148534914768</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="6">
+        <v>5.04</v>
+      </c>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>2.3159999999999998</v>
+        <v>1.8159000000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>3.3370000000000002</v>
+        <v>2.6181000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>3.4470000000000001</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>6.7850000000000001</v>
-      </c>
+        <v>5.3708999999999998</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="H5">
-        <f>2*H4</f>
-        <v>6.7876594139659074</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="R5" s="1">
-        <v>0.49759999999999999</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5">
-        <f>2*T4</f>
-        <v>0.49759999999999999</v>
+        <f>H4/100</f>
+        <v>3.3938297069829537</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K8" si="0">H5/2</f>
+        <v>1.6969148534914769</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>P5</f>
+        <v>0.24879999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.4470000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.7850000000000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="H6">
+        <f>2*H5</f>
+        <v>6.7876594139659074</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>3.3938297069829537</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>2*Q5</f>
+        <v>0.49759999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>2.7559999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>4.1959999999999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>3.3980000000000001</v>
       </c>
-      <c r="H6">
-        <f>H5/2</f>
+      <c r="F7" s="2"/>
+      <c r="H7">
+        <f>H6/2</f>
         <v>3.3938297069829537</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <f>2.5+1.696915</f>
         <v>4.1969149999999997</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f>-1.696915+2.5</f>
         <v>0.80308500000000005</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.6969148534914769</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="R6" s="1">
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="6">
         <v>2.7484000000000002</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6">
-        <f>T5/2+2.5</f>
+      <c r="Q7" s="7">
+        <f>Q6/2+2.5</f>
         <v>2.7488000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.175</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.6612</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.6616</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.323</v>
-      </c>
-      <c r="H7">
-        <f>H6</f>
-        <v>3.3938297069829537</v>
-      </c>
-      <c r="I7">
-        <f>-2.5+I6</f>
-        <v>1.6969149999999997</v>
-      </c>
-      <c r="J7">
-        <f>-2.5+J6</f>
-        <v>-1.696915</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.248</v>
-      </c>
-      <c r="S7" s="1"/>
-      <c r="T7">
-        <f>T6-2.5</f>
-        <v>0.24880000000000013</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.175</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.6612</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.6616</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.323</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="H8">
+        <f>H7</f>
+        <v>3.3938297069829537</v>
+      </c>
+      <c r="I8">
+        <f>-2.5+F7</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J8">
+        <f>-2.5+J7</f>
+        <v>-1.696915</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.6969148534914769</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0.248</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>Q7-2.5</f>
+        <v>0.24880000000000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>119.97</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>169.78</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>169.7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>339.48</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="F9" s="2"/>
+      <c r="M9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N9" s="6">
         <v>169.78</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O9" s="6">
         <v>169.7</v>
       </c>
-      <c r="P8" s="1">
-        <v>339.48</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="P9" s="6">
         <f>(5.0243+4.9748)/2</f>
         <v>4.9995500000000002</v>
       </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:22">
       <c r="M10" s="1"/>
@@ -771,38 +881,48 @@
     </row>
     <row r="11" spans="1:22">
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:22">
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="N12" s="6">
+        <f>N8-O8</f>
+        <v>2.2000000000000075E-3</v>
+      </c>
+      <c r="O12" s="6">
+        <f>2.5+(N12/2)</f>
+        <v>2.5011000000000001</v>
+      </c>
+      <c r="P12" s="6">
+        <f>P4/Q8</f>
+        <v>20.257234726688093</v>
+      </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:22">
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7">
+        <v>20.257234700000001</v>
+      </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:22">
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:22">
@@ -815,74 +935,417 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19">
-      <c r="B17" s="1">
-        <f>C7-D7</f>
-        <v>-3.9999999999995595E-4</v>
-      </c>
-      <c r="C17" s="1">
-        <f>2.5-(B17/2)</f>
-        <v>2.5002</v>
-      </c>
-      <c r="D17" s="1">
-        <f>E3/E7</f>
-        <v>102.13149885594203</v>
-      </c>
+    <row r="17" spans="1:19">
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
-        <f>N7-O7</f>
-        <v>2.2000000000000075E-3</v>
-      </c>
-      <c r="O17" s="1">
-        <f>2.5+(N17/2)</f>
-        <v>2.5011000000000001</v>
-      </c>
-      <c r="P17" s="1">
-        <f>R3/T7</f>
-        <v>20.257234726688093</v>
-      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" ht="30">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:19">
+      <c r="M18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="F26" s="1">
+        <f>(1.6807+1.6795)/2</f>
+        <v>1.6800999999999999</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="F27" s="1">
+        <f>169.87/F26</f>
+        <v>101.10707695970478</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="F29" s="1">
+        <v>101.107077</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="6">
+        <v>169.87</v>
+      </c>
+      <c r="O29" s="14">
+        <v>169.6</v>
+      </c>
+      <c r="P29" s="14">
+        <f>N29/100</f>
+        <v>1.6987000000000001</v>
+      </c>
+      <c r="Q29" s="14">
+        <f>O29/100</f>
+        <v>1.696</v>
+      </c>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="30">
+      <c r="I30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="6">
+        <v>3.3927</v>
+      </c>
+      <c r="O30" s="6">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="P30" s="14">
+        <f>P29*2</f>
+        <v>3.3974000000000002</v>
+      </c>
+      <c r="Q30" s="14">
+        <f>Q29*2</f>
+        <v>3.3919999999999999</v>
+      </c>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="I31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="6">
+        <v>4.1971999999999996</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="P31" s="14">
+        <f>P30/2+2.5</f>
+        <v>4.1987000000000005</v>
+      </c>
+      <c r="Q31" s="14">
+        <f>Q30/2-2.5</f>
+        <v>-0.80400000000000005</v>
+      </c>
+      <c r="R31" s="11"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4.1992000000000003</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="N32" s="6">
+        <f>(J32+K32)/2</f>
+        <v>4.1986000000000008</v>
+      </c>
+      <c r="O32" s="6">
+        <f>(L32+M32)/2</f>
+        <v>0.78309999999999991</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="1">
+        <f>C8-D8</f>
+        <v>-3.9999999999995595E-4</v>
+      </c>
+      <c r="C33" s="1">
+        <f>2.5-(B33/2)</f>
+        <v>2.5002</v>
+      </c>
+      <c r="D33" s="2">
+        <f>E4/E8</f>
+        <v>102.13149885594203</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.708</v>
+      </c>
+      <c r="K33" s="6">
+        <v>1.7059</v>
+      </c>
+      <c r="L33" s="14">
+        <v>-1.7072000000000001</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-1.7083999999999999</v>
+      </c>
+      <c r="N33" s="6">
+        <f>(J33+K33)/2</f>
+        <v>1.70695</v>
+      </c>
+      <c r="O33" s="6">
+        <f>(L33+M33)/2</f>
+        <v>-1.7078</v>
+      </c>
+      <c r="P33" s="14">
+        <f>N32-2.5</f>
+        <v>1.6986000000000008</v>
+      </c>
+      <c r="Q33" s="14">
+        <f>O32-2.5</f>
+        <v>-1.7169000000000001</v>
+      </c>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C34" s="1">
         <v>2.5185200000000001</v>
       </c>
-      <c r="P18">
-        <v>20.257234700000001</v>
-      </c>
+      <c r="I34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14">
+        <f>N29/N33</f>
+        <v>99.516681800872902</v>
+      </c>
+      <c r="Q34" s="14">
+        <f>O29/O33</f>
+        <v>-99.309052582269587</v>
+      </c>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>101.107077</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="1">
+        <f>4.1975-F7</f>
+        <v>4.1974999999999998</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="6">
+        <f>(N32-O32)/2</f>
+        <v>1.7077500000000003</v>
+      </c>
+      <c r="N38" s="6">
+        <f>N32-M38</f>
+        <v>2.4908500000000005</v>
+      </c>
+      <c r="O38" s="6">
+        <f>(P34+(-Q34))/2</f>
+        <v>99.412867191571252</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7">
+        <f>O32+M38</f>
+        <v>2.49085</v>
+      </c>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7">
+        <v>2.49085</v>
+      </c>
+      <c r="O40" s="7">
+        <v>99.412867000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="I41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="I42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="J28:O28"/>
+    <mergeCell ref="I26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>Vrms</t>
   </si>
@@ -109,12 +109,24 @@
   </si>
   <si>
     <t>Voltaje DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtenidos </t>
+  </si>
+  <si>
+    <t>Voltaje Entrada</t>
+  </si>
+  <si>
+    <t>Labview OFFSET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -124,15 +136,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,11 +179,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -182,21 +226,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -206,6 +282,218 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-VE"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ganancia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-200.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-159.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-119.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-79.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-39.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-34.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$48:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>99.423373266391593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.372007710004354</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.559873775120394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.887528117970518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.1878992859827</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100.72233458537998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.40655401945746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.716683119447026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.601593625497969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100.0667334000667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.07503751875939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100.26325686348251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.09162085623853</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.800573351614105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99.581943960583288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="107096704"/>
+        <c:axId val="107095168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107096704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107095168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107095168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107096704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342508</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>187577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599757</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>75518</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,862 +781,1399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="17" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="17" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="M1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="P1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="8" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>119.99</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <f>(2)^0.5*B4*2</f>
         <v>339.38297069829537</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
-        <f>E4</f>
+      <c r="K4">
+        <f>H4</f>
         <v>339.38297069829537</v>
       </c>
-      <c r="K4">
-        <f>H4/2</f>
+      <c r="N4">
+        <f>K4/2</f>
         <v>169.69148534914768</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="6">
+      <c r="S4" s="6">
         <v>5.04</v>
       </c>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1.8159000000000001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="1">
         <v>2.6181000000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="G5" s="1">
         <v>2.7509999999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="H5" s="1">
         <v>5.3708999999999998</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="H5">
-        <f>H4/100</f>
+      <c r="I5" s="2"/>
+      <c r="K5">
+        <f>K4/100</f>
         <v>3.3938297069829537</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K8" si="0">H5/2</f>
+      <c r="N5">
+        <f t="shared" ref="N5:N8" si="0">K5/2</f>
         <v>1.6969148534914769</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="6">
+      <c r="S5" s="6">
         <v>0.24879999999999999</v>
       </c>
-      <c r="Q5" s="7">
-        <f>P5</f>
+      <c r="T5" s="7">
+        <f>S5</f>
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>2.3159999999999998</v>
       </c>
-      <c r="C6" s="1">
+      <c r="F6" s="1">
         <v>3.3370000000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="G6" s="1">
         <v>3.4470000000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>6.7850000000000001</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="H6">
-        <f>2*H5</f>
+      <c r="I6" s="2"/>
+      <c r="K6">
+        <f>2*K5</f>
         <v>6.7876594139659074</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>3.3938297069829537</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="6">
+      <c r="S6" s="6">
         <v>0.49759999999999999</v>
       </c>
-      <c r="Q6" s="7">
-        <f>2*Q5</f>
+      <c r="T6" s="7">
+        <f>2*T5</f>
         <v>0.49759999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2.7559999999999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="F7" s="1">
         <v>4.1959999999999997</v>
       </c>
-      <c r="D7" s="1">
+      <c r="G7" s="1">
         <v>0.79700000000000004</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>3.3980000000000001</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="H7">
-        <f>H6/2</f>
+      <c r="I7" s="2"/>
+      <c r="K7">
+        <f>K6/2</f>
         <v>3.3938297069829537</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <f>2.5+1.696915</f>
         <v>4.1969149999999997</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <f>-1.696915+2.5</f>
         <v>0.80308500000000005</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>1.6969148534914769</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="6">
+      <c r="S7" s="6">
         <v>2.7484000000000002</v>
       </c>
-      <c r="Q7" s="7">
-        <f>Q6/2+2.5</f>
+      <c r="T7" s="7">
+        <f>T6/2+2.5</f>
         <v>2.7488000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>1.175</v>
       </c>
-      <c r="C8" s="1">
+      <c r="F8" s="1">
         <v>1.6612</v>
       </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
         <v>1.6616</v>
       </c>
-      <c r="E8" s="1">
+      <c r="H8" s="1">
         <v>3.323</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="H8">
-        <f>H7</f>
+      <c r="I8" s="2"/>
+      <c r="K8">
+        <f>K7</f>
         <v>3.3938297069829537</v>
       </c>
-      <c r="I8">
-        <f>-2.5+F7</f>
+      <c r="L8">
+        <f>-2.5+I7</f>
         <v>-2.5</v>
       </c>
-      <c r="J8">
-        <f>-2.5+J7</f>
+      <c r="M8">
+        <f>-2.5+M7</f>
         <v>-1.696915</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>1.6969148534914769</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="6">
+      <c r="Q8" s="6">
         <v>0.25</v>
       </c>
-      <c r="O8" s="6">
+      <c r="R8" s="6">
         <v>0.24779999999999999</v>
       </c>
-      <c r="P8" s="6">
+      <c r="S8" s="6">
         <v>0.248</v>
       </c>
-      <c r="Q8" s="7">
-        <f>Q7-2.5</f>
+      <c r="T8" s="7">
+        <f>T7-2.5</f>
         <v>0.24880000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>119.97</v>
       </c>
-      <c r="C9" s="1">
+      <c r="F9" s="1">
         <v>169.78</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G9" s="1">
         <v>169.7</v>
       </c>
-      <c r="E9" s="1">
+      <c r="H9" s="1">
         <v>339.48</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="M9" s="6" t="s">
+      <c r="I9" s="2"/>
+      <c r="P9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="6">
+      <c r="Q9" s="6">
         <v>169.78</v>
       </c>
-      <c r="O9" s="6">
+      <c r="R9" s="6">
         <v>169.7</v>
       </c>
-      <c r="P9" s="6">
+      <c r="S9" s="6">
         <f>(5.0243+4.9748)/2</f>
         <v>4.9995500000000002</v>
       </c>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="M11" s="1"/>
-      <c r="N11" s="6" t="s">
+      <c r="T10" s="1"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="M12" s="1"/>
-      <c r="N12" s="6">
-        <f>N8-O8</f>
+      <c r="T11" s="1"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="6">
+        <f>Q8-R8</f>
         <v>2.2000000000000075E-3</v>
       </c>
-      <c r="O12" s="6">
-        <f>2.5+(N12/2)</f>
+      <c r="R12" s="6">
+        <f>2.5+(Q12/2)</f>
         <v>2.5011000000000001</v>
       </c>
-      <c r="P12" s="6">
-        <f>P4/Q8</f>
+      <c r="S12" s="6">
+        <f>S4/T8</f>
         <v>20.257234726688093</v>
       </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="M13" s="1"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7">
+      <c r="V12" s="19"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
         <v>20.257234700000001</v>
       </c>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="V14" s="19"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="M17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="M18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="F26" s="1">
+      <c r="T16" s="1"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="P17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="P18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="I26" s="1">
         <f>(1.6807+1.6795)/2</f>
         <v>1.6800999999999999</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="L26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="F27" s="1">
-        <f>169.87/F26</f>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="I27" s="1">
+        <f>169.87/I26</f>
         <v>101.10707695970478</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="Q27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="R27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="S27" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="6" t="s">
+      <c r="T27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" ht="30" customHeight="1">
+      <c r="U27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="30" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="13" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13" t="s">
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="11"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="F29" s="1">
+      <c r="T28" s="12"/>
+      <c r="U28" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="23"/>
+      <c r="W28" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="24"/>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="I29" s="1">
         <v>101.107077</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="6">
         <v>169.87</v>
       </c>
-      <c r="O29" s="14">
+      <c r="R29" s="10">
         <v>169.6</v>
       </c>
-      <c r="P29" s="14">
-        <f>N29/100</f>
+      <c r="S29" s="10">
+        <f>Q29/100</f>
         <v>1.6987000000000001</v>
       </c>
-      <c r="Q29" s="14">
-        <f>O29/100</f>
+      <c r="T29" s="10">
+        <f>R29/100</f>
         <v>1.696</v>
       </c>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" ht="30">
-      <c r="I30" s="6" t="s">
+      <c r="U29" s="17">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="V29" s="17">
+        <v>-17.079999999999998</v>
+      </c>
+      <c r="W29" s="25">
+        <f>U29/100</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="X29" s="10">
+        <f>V29/100</f>
+        <v>-0.17079999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="30">
+      <c r="L30" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>4</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="6">
         <v>3.3927</v>
       </c>
-      <c r="O30" s="6">
+      <c r="R30" s="6">
         <v>3.4180000000000001</v>
       </c>
-      <c r="P30" s="14">
-        <f>P29*2</f>
+      <c r="S30" s="10">
+        <f>S29*2</f>
         <v>3.3974000000000002</v>
       </c>
-      <c r="Q30" s="14">
-        <f>Q29*2</f>
+      <c r="T30" s="10">
+        <f>T29*2</f>
         <v>3.3919999999999999</v>
       </c>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="I31" s="6" t="s">
+      <c r="U30" s="26">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="V30" s="17">
+        <v>0.3574</v>
+      </c>
+      <c r="W30" s="25">
+        <f>W29*2</f>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="X30" s="10">
+        <f>X29*2</f>
+        <v>-0.34159999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="L31" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>4</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="6">
         <v>4.1971999999999996</v>
       </c>
-      <c r="O31" s="6">
+      <c r="R31" s="6">
         <v>0.78210000000000002</v>
       </c>
-      <c r="P31" s="14">
-        <f>P30/2+2.5</f>
+      <c r="S31" s="10">
+        <f>S30/2+2.5</f>
         <v>4.1987000000000005</v>
       </c>
-      <c r="Q31" s="14">
-        <f>Q30/2-2.5</f>
+      <c r="T31" s="10">
+        <f>T30/2-2.5</f>
         <v>-0.80400000000000005</v>
       </c>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="U31" s="26">
+        <v>2.6528</v>
+      </c>
+      <c r="V31" s="17">
+        <v>2.3142999999999998</v>
+      </c>
+      <c r="W31" s="25">
+        <f>W30/2+2.5</f>
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="X31" s="10">
+        <f>X30/2+2.5</f>
+        <v>2.3292000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="6">
+      <c r="M32" s="6">
         <v>4.1992000000000003</v>
       </c>
-      <c r="K32" s="6">
+      <c r="N32" s="6">
         <v>4.1980000000000004</v>
       </c>
-      <c r="L32" s="6">
+      <c r="O32" s="6">
         <v>0.78369999999999995</v>
       </c>
-      <c r="M32" s="6">
+      <c r="P32" s="6">
         <v>0.78249999999999997</v>
       </c>
-      <c r="N32" s="6">
-        <f>(J32+K32)/2</f>
+      <c r="Q32" s="6">
+        <f>(M32+N32)/2</f>
         <v>4.1986000000000008</v>
       </c>
-      <c r="O32" s="6">
-        <f>(L32+M32)/2</f>
+      <c r="R32" s="6">
+        <f>(O32+P32)/2</f>
         <v>0.78309999999999991</v>
       </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="26">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="V32" s="17">
+        <v>2.31385</v>
+      </c>
+      <c r="W32" s="25"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="2:24">
       <c r="B33" s="1">
-        <f>C8-D8</f>
+        <f>F8-G8</f>
         <v>-3.9999999999995595E-4</v>
       </c>
-      <c r="C33" s="1">
+      <c r="F33" s="1">
         <f>2.5-(B33/2)</f>
         <v>2.5002</v>
       </c>
-      <c r="D33" s="2">
-        <f>E4/E8</f>
+      <c r="G33" s="2">
+        <f>H4/H8</f>
         <v>102.13149885594203</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="6">
+      <c r="M33" s="6">
         <v>1.708</v>
       </c>
-      <c r="K33" s="6">
+      <c r="N33" s="6">
         <v>1.7059</v>
       </c>
-      <c r="L33" s="14">
+      <c r="O33" s="10">
         <v>-1.7072000000000001</v>
       </c>
-      <c r="M33" s="6">
+      <c r="P33" s="6">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="N33" s="6">
-        <f>(J33+K33)/2</f>
+      <c r="Q33" s="6">
+        <f>(M33+N33)/2</f>
         <v>1.70695</v>
       </c>
-      <c r="O33" s="6">
-        <f>(L33+M33)/2</f>
+      <c r="R33" s="6">
+        <f>(O33+P33)/2</f>
         <v>-1.7078</v>
       </c>
-      <c r="P33" s="14">
-        <f>N32-2.5</f>
+      <c r="S33" s="10">
+        <f>Q32-2.5</f>
         <v>1.6986000000000008</v>
       </c>
-      <c r="Q33" s="14">
-        <f>O32-2.5</f>
+      <c r="T33" s="10">
+        <f>R32-2.5</f>
         <v>-1.7169000000000001</v>
       </c>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="2:18">
+      <c r="U33" s="26"/>
+      <c r="W33" s="25">
+        <f>U32-2.5</f>
+        <v>0.15200000000000014</v>
+      </c>
+      <c r="X33" s="10">
+        <f>V32-2.5</f>
+        <v>-0.18615000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24">
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="1">
+      <c r="F34" s="1">
         <v>2.5185200000000001</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14">
-        <f>N29/N33</f>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10">
+        <f>Q29/Q33</f>
         <v>99.516681800872902</v>
       </c>
-      <c r="Q34" s="14">
-        <f>O29/O33</f>
+      <c r="T34" s="10">
+        <f>R29/R33</f>
         <v>-99.309052582269587</v>
       </c>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="2:18">
+      <c r="U34" s="26"/>
+      <c r="W34" s="25" t="e">
+        <f>U29/U33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="10" t="e">
+        <f>V29/V33</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24">
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
+      <c r="F35" s="2"/>
+      <c r="G35" s="2">
         <v>101.107077</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="2:18">
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="2:24">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="2:18">
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="2:24">
       <c r="B37" s="1">
-        <f>4.1975-F7</f>
+        <f>4.1975-I7</f>
         <v>4.1974999999999998</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6" t="s">
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="R37" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="2:18">
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24">
       <c r="L38" s="2"/>
-      <c r="M38" s="6">
-        <f>(N32-O32)/2</f>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="6">
+        <f>(Q32-R32)/2</f>
         <v>1.7077500000000003</v>
       </c>
-      <c r="N38" s="6">
-        <f>N32-M38</f>
+      <c r="Q38" s="6">
+        <f>Q32-P38</f>
         <v>2.4908500000000005</v>
       </c>
-      <c r="O38" s="6">
-        <f>(P34+(-Q34))/2</f>
+      <c r="R38" s="6">
+        <f>(S34+(-T34))/2</f>
         <v>99.412867191571252</v>
       </c>
-    </row>
-    <row r="39" spans="2:18">
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="T38" s="9">
+        <f>(U32-V32)/2</f>
+        <v>0.16907500000000009</v>
+      </c>
+      <c r="U38" s="9">
+        <f>U32-T38</f>
+        <v>2.4829249999999998</v>
+      </c>
+      <c r="V38" s="9" t="e">
+        <f>(W34+(-X34))/2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24">
       <c r="L39" s="2"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7">
-        <f>O32+M38</f>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7">
+        <f>R32+P38</f>
         <v>2.49085</v>
       </c>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="2:18">
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="R39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7">
+        <f>V32+T38</f>
+        <v>2.4829249999999998</v>
+      </c>
+      <c r="V39" s="7"/>
+    </row>
+    <row r="40" spans="2:24">
       <c r="L40" s="2"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7">
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7">
         <v>2.49085</v>
       </c>
-      <c r="O40" s="7">
+      <c r="R40" s="7">
         <v>99.412867000000006</v>
       </c>
-    </row>
-    <row r="41" spans="2:18">
-      <c r="I41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="2:18">
-      <c r="I42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7">
+        <v>2.49085</v>
+      </c>
+      <c r="V40" s="7">
+        <v>99.412867000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24">
+      <c r="L41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="2:24">
+      <c r="L42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="47" spans="2:24" ht="30">
+      <c r="B47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24">
+      <c r="B48" s="9">
+        <v>-200.01</v>
+      </c>
+      <c r="C48" s="9">
+        <f>2.4829-2.0105</f>
+        <v>0.47239999999999993</v>
+      </c>
+      <c r="D48" s="9">
+        <f>2.4829-2.0129</f>
+        <v>0.46999999999999975</v>
+      </c>
+      <c r="E48" s="9">
+        <f>(D48+C48)/2</f>
+        <v>0.47119999999999984</v>
+      </c>
+      <c r="F48" s="9">
+        <f>E48-2.4829</f>
+        <v>-2.0117000000000003</v>
+      </c>
+      <c r="G48" s="9">
+        <f>ABS(B48/F48)</f>
+        <v>99.423373266391593</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" s="9">
+        <v>-159.82</v>
+      </c>
+      <c r="C49" s="9">
+        <v>1.6076999999999999</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1.6089</v>
+      </c>
+      <c r="E49" s="9">
+        <f>2.4829-(D49+C49)/2</f>
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" ref="F49:F56" si="1">E49-2.4829</f>
+        <v>-1.6082999999999998</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" ref="G49:G56" si="2">ABS(B49/F49)</f>
+        <v>99.372007710004354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="9">
+        <v>-119.89</v>
+      </c>
+      <c r="C50" s="9">
+        <v>1.2036</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1.2048000000000001</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" ref="E50:E62" si="3">2.4829-(D50+C50)/2</f>
+        <v>1.2786999999999997</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2042000000000002</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="2"/>
+        <v>99.559873775120394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="9">
+        <v>-79.930000000000007</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6826999999999999</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.80020000000000002</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="2"/>
+        <v>99.887528117970518</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4"/>
+      <c r="B52" s="9">
+        <v>-39.99</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" ref="E52" si="4">2.4829-(D52+C52)/2</f>
+        <v>2.0837499999999998</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.39915000000000012</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" ref="G52" si="5">ABS(B52/F52)</f>
+        <v>100.1878992859827</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="9">
+        <v>-34.86</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0.34670000000000001</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="3"/>
+        <v>2.1368</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.34609999999999985</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="2"/>
+        <v>100.72233458537998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4"/>
+      <c r="B54" s="9">
+        <v>-10</v>
+      </c>
+      <c r="C54" s="9">
+        <v>9.64E-2</v>
+      </c>
+      <c r="D54" s="9">
+        <v>9.8900000000000002E-2</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="3"/>
+        <v>2.3852500000000001</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.7649999999999793E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="2"/>
+        <v>102.40655401945746</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4"/>
+      <c r="B55" s="9">
+        <v>10</v>
+      </c>
+      <c r="C55" s="9">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="E55" s="9">
+        <f t="shared" si="3"/>
+        <v>2.3815999999999997</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.10130000000000017</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="2"/>
+        <v>98.716683119447026</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4"/>
+      <c r="B56" s="9">
+        <v>20</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0.2014</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="E56" s="9">
+        <f t="shared" si="3"/>
+        <v>2.2820999999999998</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.20080000000000009</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="2"/>
+        <v>99.601593625497969</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="9">
+        <v>29.99</v>
+      </c>
+      <c r="C57" s="9">
+        <v>0.30030000000000001</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="E57" s="9">
+        <f t="shared" si="3"/>
+        <v>2.1831999999999998</v>
+      </c>
+      <c r="F57" s="9">
+        <f>E57-2.4829</f>
+        <v>-0.29970000000000008</v>
+      </c>
+      <c r="G57" s="9">
+        <f>ABS(B57/F57)</f>
+        <v>100.0667334000667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4"/>
+      <c r="B58" s="9">
+        <v>40.01</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.3992</v>
+      </c>
+      <c r="E58" s="9">
+        <f t="shared" si="3"/>
+        <v>2.0831</v>
+      </c>
+      <c r="F58" s="9">
+        <f>E58-2.4829</f>
+        <v>-0.39979999999999993</v>
+      </c>
+      <c r="G58" s="9">
+        <f>ABS(B58/F58)</f>
+        <v>100.07503751875939</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="9">
+        <v>79.98</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="E59" s="9">
+        <f t="shared" si="3"/>
+        <v>1.6851999999999998</v>
+      </c>
+      <c r="F59" s="9">
+        <f>E59-2.4829</f>
+        <v>-0.79770000000000008</v>
+      </c>
+      <c r="G59" s="9">
+        <f>ABS(B59/F59)</f>
+        <v>100.26325686348251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="B60" s="9">
+        <v>120.17</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1.2012</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="E60" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2822999999999998</v>
+      </c>
+      <c r="F60" s="9">
+        <f>E60-2.4829</f>
+        <v>-1.2006000000000001</v>
+      </c>
+      <c r="G60" s="9">
+        <f>ABS(B60/F60)</f>
+        <v>100.09162085623853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="9">
+        <v>160.13999999999999</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D61" s="9">
+        <v>1.6052</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="3"/>
+        <v>0.87829999999999986</v>
+      </c>
+      <c r="F61" s="9">
+        <f>E61-2.4829</f>
+        <v>-1.6046</v>
+      </c>
+      <c r="G61" s="9">
+        <f>ABS(B61/F61)</f>
+        <v>99.800573351614105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="9">
+        <v>200.09</v>
+      </c>
+      <c r="C62" s="9">
+        <v>2.0081000000000002</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2.0105</v>
+      </c>
+      <c r="E62" s="9">
+        <f t="shared" si="3"/>
+        <v>0.4735999999999998</v>
+      </c>
+      <c r="F62" s="9">
+        <f>E62-2.4829</f>
+        <v>-2.0093000000000001</v>
+      </c>
+      <c r="G62" s="9">
+        <f>ABS(B62/F62)</f>
+        <v>99.581943960583288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="9">
+        <v>0</v>
+      </c>
+      <c r="C65" s="9">
+        <v>2.4841000000000002</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2.4817</v>
+      </c>
+      <c r="E65" s="9">
+        <f>(D65+C65)/2</f>
+        <v>2.4828999999999999</v>
+      </c>
+      <c r="F65" s="9">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9" t="e">
+        <f>ABS(B65/F65)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="J28:O28"/>
-    <mergeCell ref="I26:Q26"/>
+  <mergeCells count="8">
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="L26:T26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,26 +177,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -229,16 +209,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,25 +225,32 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,23 +396,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107096704"/>
-        <c:axId val="107095168"/>
+        <c:axId val="103805312"/>
+        <c:axId val="103806848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107096704"/>
+        <c:axId val="103805312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107095168"/>
+        <c:crossAx val="103806848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107095168"/>
+        <c:axId val="103806848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +420,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107096704"/>
+        <c:crossAx val="103805312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -455,7 +433,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -781,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,38 +778,38 @@
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="18" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="17" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="17" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="17"/>
+    <col min="21" max="21" width="11.42578125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="14" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="P1" s="13" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="P1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
       <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25">
@@ -846,17 +824,17 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
       <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="X2" s="18"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="X2" s="15"/>
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25">
@@ -902,7 +880,7 @@
       <c r="T3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="19"/>
+      <c r="X3" s="16"/>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25">
@@ -1169,8 +1147,8 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:25">
       <c r="P11" s="1"/>
@@ -1184,8 +1162,8 @@
         <v>15</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:25">
       <c r="P12" s="1"/>
@@ -1201,7 +1179,7 @@
         <f>S4/T8</f>
         <v>20.257234726688093</v>
       </c>
-      <c r="V12" s="19"/>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:25">
       <c r="P13" s="1"/>
@@ -1210,13 +1188,13 @@
       <c r="S13" s="7">
         <v>20.257234700000001</v>
       </c>
-      <c r="V13" s="19"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:25">
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="V14" s="19"/>
+      <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:25">
       <c r="P15" s="1"/>
@@ -1224,8 +1202,8 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:25">
       <c r="P16" s="1"/>
@@ -1233,81 +1211,84 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:24">
       <c r="P17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:24">
       <c r="P18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
     </row>
     <row r="26" spans="1:24">
       <c r="I26" s="1">
         <f>(1.6807+1.6795)/2</f>
         <v>1.6800999999999999</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="20"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:24">
       <c r="I27" s="1">
         <f>169.87/I26</f>
         <v>101.10707695970478</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="15" t="s">
+      <c r="S27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="T27" s="15" t="s">
+      <c r="T27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="U27" s="21" t="s">
+      <c r="U27" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="V27" s="21" t="s">
+      <c r="V27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="W27" s="21" t="s">
+      <c r="W27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="X27" s="21" t="s">
+      <c r="X27" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1319,162 +1300,162 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="12" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12" t="s">
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="22" t="s">
+      <c r="T28" s="24"/>
+      <c r="U28" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24" t="s">
+      <c r="V28" s="21"/>
+      <c r="W28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="24"/>
+      <c r="X28" s="22"/>
     </row>
     <row r="29" spans="1:24">
       <c r="I29" s="1">
         <v>101.107077</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="10">
         <v>169.87</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="11">
         <v>169.6</v>
       </c>
-      <c r="S29" s="10">
+      <c r="S29" s="11">
         <f>Q29/100</f>
         <v>1.6987000000000001</v>
       </c>
-      <c r="T29" s="10">
+      <c r="T29" s="11">
         <f>R29/100</f>
         <v>1.696</v>
       </c>
-      <c r="U29" s="17">
+      <c r="U29" s="20">
         <v>17.100000000000001</v>
       </c>
-      <c r="V29" s="17">
+      <c r="V29" s="20">
         <v>-17.079999999999998</v>
       </c>
-      <c r="W29" s="25">
+      <c r="W29" s="18">
         <f>U29/100</f>
         <v>0.17100000000000001</v>
       </c>
-      <c r="X29" s="10">
+      <c r="X29" s="11">
         <f>V29/100</f>
         <v>-0.17079999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="30">
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="10" t="s">
+      <c r="O30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30" s="10">
         <v>3.3927</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30" s="10">
         <v>3.4180000000000001</v>
       </c>
-      <c r="S30" s="10">
+      <c r="S30" s="11">
         <f>S29*2</f>
         <v>3.3974000000000002</v>
       </c>
-      <c r="T30" s="10">
+      <c r="T30" s="11">
         <f>T29*2</f>
         <v>3.3919999999999999</v>
       </c>
-      <c r="U30" s="26">
+      <c r="U30" s="18">
         <v>0.31909999999999999</v>
       </c>
-      <c r="V30" s="17">
+      <c r="V30" s="20">
         <v>0.3574</v>
       </c>
-      <c r="W30" s="25">
+      <c r="W30" s="18">
         <f>W29*2</f>
         <v>0.34200000000000003</v>
       </c>
-      <c r="X30" s="10">
+      <c r="X30" s="11">
         <f>X29*2</f>
         <v>-0.34159999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="O31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="6" t="s">
+      <c r="P31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="Q31" s="10">
         <v>4.1971999999999996</v>
       </c>
-      <c r="R31" s="6">
+      <c r="R31" s="10">
         <v>0.78210000000000002</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="11">
         <f>S30/2+2.5</f>
         <v>4.1987000000000005</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="11">
         <f>T30/2-2.5</f>
         <v>-0.80400000000000005</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31" s="18">
         <v>2.6528</v>
       </c>
-      <c r="V31" s="17">
+      <c r="V31" s="20">
         <v>2.3142999999999998</v>
       </c>
-      <c r="W31" s="25">
+      <c r="W31" s="18">
         <f>W30/2+2.5</f>
         <v>2.6709999999999998</v>
       </c>
-      <c r="X31" s="10">
+      <c r="X31" s="11">
         <f>X30/2+2.5</f>
         <v>2.3292000000000002</v>
       </c>
@@ -1489,39 +1470,39 @@
       <c r="G32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="10">
         <v>4.1992000000000003</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="10">
         <v>4.1980000000000004</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="10">
         <v>0.78369999999999995</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P32" s="10">
         <v>0.78249999999999997</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="10">
         <f>(M32+N32)/2</f>
         <v>4.1986000000000008</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R32" s="10">
         <f>(O32+P32)/2</f>
         <v>0.78309999999999991</v>
       </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="26">
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="18">
         <v>2.6520000000000001</v>
       </c>
-      <c r="V32" s="17">
+      <c r="V32" s="20">
         <v>2.31385</v>
       </c>
-      <c r="W32" s="25"/>
-      <c r="X32" s="10"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="1">
@@ -1536,43 +1517,44 @@
         <f>H4/H8</f>
         <v>102.13149885594203</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="10">
         <v>1.708</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="10">
         <v>1.7059</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="11">
         <v>-1.7072000000000001</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="10">
         <v>-1.7083999999999999</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="10">
         <f>(M33+N33)/2</f>
         <v>1.70695</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R33" s="10">
         <f>(O33+P33)/2</f>
         <v>-1.7078</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="11">
         <f>Q32-2.5</f>
         <v>1.6986000000000008</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="11">
         <f>R32-2.5</f>
         <v>-1.7169000000000001</v>
       </c>
-      <c r="U33" s="26"/>
-      <c r="W33" s="25">
+      <c r="U33" s="18"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="18">
         <f>U32-2.5</f>
         <v>0.15200000000000014</v>
       </c>
-      <c r="X33" s="10">
+      <c r="X33" s="11">
         <f>V32-2.5</f>
         <v>-0.18615000000000004</v>
       </c>
@@ -1584,29 +1566,30 @@
       <c r="F34" s="1">
         <v>2.5185200000000001</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10">
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11">
         <f>Q29/Q33</f>
         <v>99.516681800872902</v>
       </c>
-      <c r="T34" s="10">
+      <c r="T34" s="11">
         <f>R29/R33</f>
         <v>-99.309052582269587</v>
       </c>
-      <c r="U34" s="26"/>
-      <c r="W34" s="25" t="e">
+      <c r="U34" s="18"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="18" t="e">
         <f>U29/U33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X34" s="10" t="e">
+      <c r="X34" s="11" t="e">
         <f>V29/V33</f>
         <v>#DIV/0!</v>
       </c>
@@ -1628,7 +1611,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="18"/>
+      <c r="U35" s="15"/>
     </row>
     <row r="36" spans="2:24">
       <c r="L36" s="2"/>
@@ -2003,11 +1986,11 @@
         <v>2.1831999999999998</v>
       </c>
       <c r="F57" s="9">
-        <f>E57-2.4829</f>
+        <f t="shared" ref="F57:F62" si="6">E57-2.4829</f>
         <v>-0.29970000000000008</v>
       </c>
       <c r="G57" s="9">
-        <f>ABS(B57/F57)</f>
+        <f t="shared" ref="G57:G62" si="7">ABS(B57/F57)</f>
         <v>100.0667334000667</v>
       </c>
     </row>
@@ -2027,11 +2010,11 @@
         <v>2.0831</v>
       </c>
       <c r="F58" s="9">
-        <f>E58-2.4829</f>
+        <f t="shared" si="6"/>
         <v>-0.39979999999999993</v>
       </c>
       <c r="G58" s="9">
-        <f>ABS(B58/F58)</f>
+        <f t="shared" si="7"/>
         <v>100.07503751875939</v>
       </c>
       <c r="H58" s="4"/>
@@ -2053,11 +2036,11 @@
         <v>1.6851999999999998</v>
       </c>
       <c r="F59" s="9">
-        <f>E59-2.4829</f>
+        <f t="shared" si="6"/>
         <v>-0.79770000000000008</v>
       </c>
       <c r="G59" s="9">
-        <f>ABS(B59/F59)</f>
+        <f t="shared" si="7"/>
         <v>100.26325686348251</v>
       </c>
     </row>
@@ -2076,11 +2059,11 @@
         <v>1.2822999999999998</v>
       </c>
       <c r="F60" s="9">
-        <f>E60-2.4829</f>
+        <f t="shared" si="6"/>
         <v>-1.2006000000000001</v>
       </c>
       <c r="G60" s="9">
-        <f>ABS(B60/F60)</f>
+        <f t="shared" si="7"/>
         <v>100.09162085623853</v>
       </c>
     </row>
@@ -2099,11 +2082,11 @@
         <v>0.87829999999999986</v>
       </c>
       <c r="F61" s="9">
-        <f>E61-2.4829</f>
+        <f t="shared" si="6"/>
         <v>-1.6046</v>
       </c>
       <c r="G61" s="9">
-        <f>ABS(B61/F61)</f>
+        <f t="shared" si="7"/>
         <v>99.800573351614105</v>
       </c>
     </row>
@@ -2122,11 +2105,11 @@
         <v>0.4735999999999998</v>
       </c>
       <c r="F62" s="9">
-        <f>E62-2.4829</f>
+        <f t="shared" si="6"/>
         <v>-2.0093000000000001</v>
       </c>
       <c r="G62" s="9">
-        <f>ABS(B62/F62)</f>
+        <f t="shared" si="7"/>
         <v>99.581943960583288</v>
       </c>
     </row>
@@ -2158,6 +2141,27 @@
       <c r="G65" s="9" t="e">
         <f>ABS(B65/F65)</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="C68" s="4">
+        <f>(G60+G50)/2</f>
+        <v>99.825747315679465</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="C69" s="4">
+        <v>99.825699999999998</v>
+      </c>
+      <c r="G69" s="1">
+        <f>SUM(G48:G53)+SUM(G56:G62)</f>
+        <v>1298.633776317092</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="G70" s="1">
+        <f>G69/13</f>
+        <v>99.894905870545543</v>
       </c>
     </row>
   </sheetData>

--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\MedidorInteligente\MedidorInteligente_V1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C94737B9-BA11-4D58-BCD6-BBEFBCAC4003}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="28752" windowHeight="12588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
   <si>
     <t>Vrms</t>
   </si>
@@ -123,11 +129,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +241,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,20 +271,40 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-VE"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -395,7 +427,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0126-4E90-BDD2-5515FC0C5BEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="103805312"/>
         <c:axId val="103806848"/>
       </c:scatterChart>
@@ -404,8 +450,11 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="103806848"/>
         <c:crosses val="autoZero"/>
@@ -416,9 +465,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="103805312"/>
         <c:crosses val="autoZero"/>
@@ -427,9 +479,178 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.010576154500545E-2"/>
+          <c:y val="0.16610025217090058"/>
+          <c:w val="0.69419468834785836"/>
+          <c:h val="0.76315298914334406"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ganancia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$77:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>170.245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-168.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-169.708</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-199.24199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$77:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99.868011966915006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.762494106553504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.910049809551708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.904640489546168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.071155089254631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.293700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.303270292364203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0D7-4531-9E4A-E8066F1E4435}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103805312"/>
+        <c:axId val="103806848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103805312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103806848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103806848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103805312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -456,7 +677,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -466,6 +693,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>125895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104849</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>21455</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E036512F-C0BA-4F4A-9C1B-46F7A1DA68CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -517,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,9 +814,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,6 +866,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,61 +1059,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="18" width="10.5703125" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="14" customWidth="1"/>
-    <col min="23" max="24" width="9.140625" style="14"/>
+    <col min="17" max="18" width="10.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" style="14" customWidth="1"/>
+    <col min="23" max="24" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="P1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="P1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
@@ -824,11 +1125,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
@@ -837,7 +1138,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,7 +1184,7 @@
       <c r="X3" s="16"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -925,7 +1226,7 @@
       </c>
       <c r="T4" s="7"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +1268,7 @@
         <v>0.24879999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1310,7 @@
         <v>0.49759999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1360,7 @@
         <v>2.7488000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1410,7 @@
         <v>0.24880000000000013</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1141,7 +1442,7 @@
       </c>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1150,7 +1451,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P11" s="1"/>
       <c r="Q11" s="6" t="s">
         <v>13</v>
@@ -1165,7 +1466,7 @@
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P12" s="1"/>
       <c r="Q12" s="6">
         <f>Q8-R8</f>
@@ -1181,7 +1482,7 @@
       </c>
       <c r="V12" s="16"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P13" s="1"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1190,13 +1491,13 @@
       </c>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="V14" s="16"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1205,7 +1506,7 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1214,40 +1515,40 @@
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="P18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I26" s="1">
         <f>(1.6807+1.6795)/2</f>
         <v>1.6800999999999999</v>
       </c>
-      <c r="L26" s="26" t="s">
+      <c r="L26" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
       <c r="U26" s="19"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I27" s="1">
         <f>169.87/I26</f>
         <v>101.10707695970478</v>
@@ -1292,7 +1593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="F28" s="2"/>
@@ -1301,28 +1602,28 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24" t="s">
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="24"/>
-      <c r="U28" s="21" t="s">
+      <c r="T28" s="26"/>
+      <c r="U28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="21"/>
-      <c r="W28" s="22" t="s">
+      <c r="V28" s="23"/>
+      <c r="W28" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="22"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="X28" s="24"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
         <v>101.107077</v>
       </c>
@@ -1370,7 +1671,7 @@
         <v>-0.17079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="30">
+    <row r="30" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="L30" s="10" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1716,7 @@
         <v>-0.34159999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L31" s="10" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1761,7 @@
         <v>2.3292000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1504,7 +1805,7 @@
       <c r="W32" s="18"/>
       <c r="X32" s="11"/>
     </row>
-    <row r="33" spans="2:24">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <f>F8-G8</f>
         <v>-3.9999999999995595E-4</v>
@@ -1559,7 +1860,7 @@
         <v>-0.18615000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1594,7 +1895,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="2:24">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1613,7 +1914,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="2:24">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -1622,7 +1923,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="2:24">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <f>4.1975-I7</f>
         <v>4.1974999999999998</v>
@@ -1646,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:24">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -1676,7 +1977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:24">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -1694,7 +1995,7 @@
       </c>
       <c r="V39" s="7"/>
     </row>
-    <row r="40" spans="2:24">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -1714,19 +2015,19 @@
         <v>99.412867000000006</v>
       </c>
     </row>
-    <row r="41" spans="2:24">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="2:24">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="L42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="47" spans="2:24" ht="30">
+    <row r="47" spans="2:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
         <v>32</v>
       </c>
@@ -1746,7 +2047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:24">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" s="9">
         <v>-200.01</v>
       </c>
@@ -1771,7 +2072,7 @@
         <v>99.423373266391593</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B49" s="9">
         <v>-159.82</v>
       </c>
@@ -1794,7 +2095,7 @@
         <v>99.372007710004354</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B50" s="9">
         <v>-119.89</v>
       </c>
@@ -1817,7 +2118,7 @@
         <v>99.559873775120394</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B51" s="9">
         <v>-79.930000000000007</v>
       </c>
@@ -1840,7 +2141,7 @@
         <v>99.887528117970518</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="9">
         <v>-39.99</v>
@@ -1867,7 +2168,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" s="9">
         <v>-34.86</v>
       </c>
@@ -1890,7 +2191,7 @@
         <v>100.72233458537998</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="9">
         <v>-10</v>
@@ -1917,7 +2218,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="9">
         <v>10</v>
@@ -1944,7 +2245,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="9">
         <v>20</v>
@@ -1971,7 +2272,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B57" s="9">
         <v>29.99</v>
       </c>
@@ -1994,7 +2295,7 @@
         <v>100.0667334000667</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="9">
         <v>40.01</v>
@@ -2021,7 +2322,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>79.98</v>
       </c>
@@ -2044,7 +2345,7 @@
         <v>100.26325686348251</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" s="9">
         <v>120.17</v>
       </c>
@@ -2067,7 +2368,7 @@
         <v>100.09162085623853</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="9">
         <v>160.13999999999999</v>
       </c>
@@ -2090,7 +2391,7 @@
         <v>99.800573351614105</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" s="9">
         <v>200.09</v>
       </c>
@@ -2113,7 +2414,7 @@
         <v>99.581943960583288</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -2121,7 +2422,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" s="9">
         <v>0</v>
       </c>
@@ -2143,13 +2444,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C68" s="4">
         <f>(G60+G50)/2</f>
         <v>99.825747315679465</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C69" s="4">
         <v>99.825699999999998</v>
       </c>
@@ -2158,10 +2459,366 @@
         <v>1298.633776317092</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G70" s="1">
         <f>G69/13</f>
         <v>99.894905870545543</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="22">
+        <v>170.245</v>
+      </c>
+      <c r="C77" s="22">
+        <v>1.7053</v>
+      </c>
+      <c r="D77" s="22">
+        <v>1.7040999999999999</v>
+      </c>
+      <c r="E77" s="22">
+        <f>(D77+C77)/2</f>
+        <v>1.7046999999999999</v>
+      </c>
+      <c r="F77" s="22">
+        <f>E77-2.4829</f>
+        <v>-0.7782</v>
+      </c>
+      <c r="G77" s="22">
+        <f>ABS(B77/E77)</f>
+        <v>99.868011966915006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22">
+        <v>169.27699999999999</v>
+      </c>
+      <c r="C78" s="22">
+        <v>1.698</v>
+      </c>
+      <c r="D78" s="22">
+        <v>1.6956</v>
+      </c>
+      <c r="E78" s="22">
+        <f>(D78+C78)/2</f>
+        <v>1.6968000000000001</v>
+      </c>
+      <c r="F78" s="22">
+        <f>E78-2.4829</f>
+        <v>-0.7860999999999998</v>
+      </c>
+      <c r="G78" s="22">
+        <f>ABS(B78/E78)</f>
+        <v>99.762494106553504</v>
+      </c>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="22">
+        <v>-168.79</v>
+      </c>
+      <c r="C79" s="22">
+        <v>-1.7053</v>
+      </c>
+      <c r="D79" s="22">
+        <v>-1.7077</v>
+      </c>
+      <c r="E79" s="22">
+        <f t="shared" ref="E79:E81" si="8">2.4829-(D79+C79)/2</f>
+        <v>4.1894</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" ref="F79:F81" si="9">E79-2.4829</f>
+        <v>1.7065000000000001</v>
+      </c>
+      <c r="G79" s="22">
+        <f t="shared" ref="G79:G81" si="10">ABS(B79/F79)</f>
+        <v>98.910049809551708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="22">
+        <v>-169.708</v>
+      </c>
+      <c r="C80" s="22">
+        <v>-1.7117500000000001</v>
+      </c>
+      <c r="D80" s="22">
+        <v>-1.72</v>
+      </c>
+      <c r="E80" s="22">
+        <f t="shared" si="8"/>
+        <v>4.1987749999999995</v>
+      </c>
+      <c r="F80" s="22">
+        <f t="shared" si="9"/>
+        <v>1.7158749999999996</v>
+      </c>
+      <c r="G80" s="22">
+        <f t="shared" si="10"/>
+        <v>98.904640489546168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="22">
+        <v>-199.24199999999999</v>
+      </c>
+      <c r="C81" s="22">
+        <v>-2.0105</v>
+      </c>
+      <c r="D81" s="22">
+        <v>-2.0116999999999998</v>
+      </c>
+      <c r="E81" s="22">
+        <f t="shared" si="8"/>
+        <v>4.4939999999999998</v>
+      </c>
+      <c r="F81" s="22">
+        <f t="shared" si="9"/>
+        <v>2.0110999999999999</v>
+      </c>
+      <c r="G81" s="22">
+        <f t="shared" si="10"/>
+        <v>99.071155089254631</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <v>99.293700000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <f>SUM(G77:G81)/5</f>
+        <v>99.303270292364203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="21"/>
+      <c r="B84" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2.4878</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2.4853999999999998</v>
+      </c>
+      <c r="E85" s="22">
+        <f>(D85+C85)/2</f>
+        <v>2.4866000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="22">
+        <v>121.119</v>
+      </c>
+      <c r="C94" s="22">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="D94" s="22">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="E94" s="22">
+        <f>2.4829-(D94+C94)/2</f>
+        <v>1.2670999999999999</v>
+      </c>
+      <c r="F94" s="22">
+        <f>E94-2.4829</f>
+        <v>-1.2158</v>
+      </c>
+      <c r="G94" s="22">
+        <f>ABS(B94/F94)</f>
+        <v>99.620825793716065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="22">
+        <v>80.983999999999995</v>
+      </c>
+      <c r="C95" s="22">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="D95" s="22">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="E95" s="22">
+        <f>2.4829-(D95+C95)/2</f>
+        <v>1.6741999999999999</v>
+      </c>
+      <c r="F95" s="22">
+        <f>E95-2.4829</f>
+        <v>-0.80869999999999997</v>
+      </c>
+      <c r="G95" s="22">
+        <f>ABS(B95/F95)</f>
+        <v>100.14096698404848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="22">
+        <v>40.944000000000003</v>
+      </c>
+      <c r="C96" s="22">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="D96" s="22">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="E96" s="22">
+        <f>2.4829-(D96+C96)/2</f>
+        <v>2.0775999999999999</v>
+      </c>
+      <c r="F96" s="22">
+        <f>E96-2.4829</f>
+        <v>-0.40529999999999999</v>
+      </c>
+      <c r="G96" s="22">
+        <f>ABS(B96/F96)</f>
+        <v>101.02146558105107</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="22">
+        <v>-39.012500000000003</v>
+      </c>
+      <c r="C97" s="22">
+        <v>-0.39789999999999998</v>
+      </c>
+      <c r="D97" s="22">
+        <v>-0.3992</v>
+      </c>
+      <c r="E97" s="22">
+        <f>2.4829-(D97+C97)/2</f>
+        <v>2.8814500000000001</v>
+      </c>
+      <c r="F97" s="22">
+        <f>E97-2.4829</f>
+        <v>0.39855000000000018</v>
+      </c>
+      <c r="G97" s="22">
+        <f>ABS(B97/F97)</f>
+        <v>97.886087065612813</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="22">
+        <v>-79.002300000000005</v>
+      </c>
+      <c r="C98" s="22">
+        <v>-0.80088000000000004</v>
+      </c>
+      <c r="D98" s="22">
+        <v>-0.80200000000000005</v>
+      </c>
+      <c r="E98" s="22">
+        <f>2.4829-(D98+C98)/2</f>
+        <v>3.2843399999999998</v>
+      </c>
+      <c r="F98" s="22">
+        <f>E98-2.4829</f>
+        <v>0.80143999999999993</v>
+      </c>
+      <c r="G98" s="22">
+        <f>ABS(B98/F98)</f>
+        <v>98.575439209423052</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" s="22">
+        <v>-118.98699999999999</v>
+      </c>
+      <c r="C99" s="22">
+        <v>-1.206</v>
+      </c>
+      <c r="D99" s="22">
+        <v>-1.2048000000000001</v>
+      </c>
+      <c r="E99" s="22">
+        <f>2.4829-(D99+C99)/2</f>
+        <v>3.6882999999999999</v>
+      </c>
+      <c r="F99" s="22">
+        <f>E99-2.4829</f>
+        <v>1.2054</v>
+      </c>
+      <c r="G99" s="22">
+        <f>ABS(B99/F99)</f>
+        <v>98.71163099386095</v>
       </c>
     </row>
   </sheetData>
@@ -2182,24 +2839,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MedidorInteligente_V1/Valores de calibracion.xlsx
+++ b/MedidorInteligente_V1/Valores de calibracion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\MedidorInteligente\MedidorInteligente_V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C94737B9-BA11-4D58-BCD6-BBEFBCAC4003}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0B94FF4-79B4-45AD-AE76-1FAF1921CFFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="28752" windowHeight="12588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>Vrms</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Labview OFFSET</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>Potencia</t>
   </si>
 </sst>
 </file>
@@ -189,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -264,6 +282,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,9 +1084,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -1075,6 +1099,7 @@
     <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="18" width="10.5546875" customWidth="1"/>
@@ -1085,28 +1110,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="P1" s="27" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="P1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
@@ -1125,11 +1150,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
       <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1532,17 +1557,17 @@
         <f>(1.6807+1.6795)/2</f>
         <v>1.6800999999999999</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="L26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
       <c r="U26" s="19"/>
       <c r="V26" s="20"/>
       <c r="W26" s="20"/>
@@ -1602,26 +1627,26 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26" t="s">
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T28" s="26"/>
-      <c r="U28" s="23" t="s">
+      <c r="T28" s="27"/>
+      <c r="U28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="24" t="s">
+      <c r="V28" s="24"/>
+      <c r="W28" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="24"/>
+      <c r="X28" s="25"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I29" s="1">
@@ -2694,15 +2719,15 @@
         <v>1.2145999999999999</v>
       </c>
       <c r="E94" s="22">
-        <f>2.4829-(D94+C94)/2</f>
+        <f t="shared" ref="E94:E99" si="11">2.4829-(D94+C94)/2</f>
         <v>1.2670999999999999</v>
       </c>
       <c r="F94" s="22">
-        <f>E94-2.4829</f>
+        <f t="shared" ref="F94:F99" si="12">E94-2.4829</f>
         <v>-1.2158</v>
       </c>
       <c r="G94" s="22">
-        <f>ABS(B94/F94)</f>
+        <f t="shared" ref="G94:G99" si="13">ABS(B94/F94)</f>
         <v>99.620825793716065</v>
       </c>
     </row>
@@ -2717,15 +2742,15 @@
         <v>0.80810000000000004</v>
       </c>
       <c r="E95" s="22">
-        <f>2.4829-(D95+C95)/2</f>
+        <f t="shared" si="11"/>
         <v>1.6741999999999999</v>
       </c>
       <c r="F95" s="22">
-        <f>E95-2.4829</f>
+        <f t="shared" si="12"/>
         <v>-0.80869999999999997</v>
       </c>
       <c r="G95" s="22">
-        <f>ABS(B95/F95)</f>
+        <f t="shared" si="13"/>
         <v>100.14096698404848</v>
       </c>
     </row>
@@ -2740,19 +2765,19 @@
         <v>0.40410000000000001</v>
       </c>
       <c r="E96" s="22">
-        <f>2.4829-(D96+C96)/2</f>
+        <f t="shared" si="11"/>
         <v>2.0775999999999999</v>
       </c>
       <c r="F96" s="22">
-        <f>E96-2.4829</f>
+        <f t="shared" si="12"/>
         <v>-0.40529999999999999</v>
       </c>
       <c r="G96" s="22">
-        <f>ABS(B96/F96)</f>
+        <f t="shared" si="13"/>
         <v>101.02146558105107</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B97" s="22">
         <v>-39.012500000000003</v>
       </c>
@@ -2763,19 +2788,19 @@
         <v>-0.3992</v>
       </c>
       <c r="E97" s="22">
-        <f>2.4829-(D97+C97)/2</f>
+        <f t="shared" si="11"/>
         <v>2.8814500000000001</v>
       </c>
       <c r="F97" s="22">
-        <f>E97-2.4829</f>
+        <f t="shared" si="12"/>
         <v>0.39855000000000018</v>
       </c>
       <c r="G97" s="22">
-        <f>ABS(B97/F97)</f>
+        <f t="shared" si="13"/>
         <v>97.886087065612813</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B98" s="22">
         <v>-79.002300000000005</v>
       </c>
@@ -2786,19 +2811,25 @@
         <v>-0.80200000000000005</v>
       </c>
       <c r="E98" s="22">
-        <f>2.4829-(D98+C98)/2</f>
+        <f t="shared" si="11"/>
         <v>3.2843399999999998</v>
       </c>
       <c r="F98" s="22">
-        <f>E98-2.4829</f>
+        <f t="shared" si="12"/>
         <v>0.80143999999999993</v>
       </c>
       <c r="G98" s="22">
-        <f>ABS(B98/F98)</f>
+        <f t="shared" si="13"/>
         <v>98.575439209423052</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="I98" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J98" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B99" s="22">
         <v>-118.98699999999999</v>
       </c>
@@ -2809,16 +2840,144 @@
         <v>-1.2048000000000001</v>
       </c>
       <c r="E99" s="22">
-        <f>2.4829-(D99+C99)/2</f>
+        <f t="shared" si="11"/>
         <v>3.6882999999999999</v>
       </c>
       <c r="F99" s="22">
-        <f>E99-2.4829</f>
+        <f t="shared" si="12"/>
         <v>1.2054</v>
       </c>
       <c r="G99" s="22">
-        <f>ABS(B99/F99)</f>
+        <f t="shared" si="13"/>
         <v>98.71163099386095</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" t="s">
+        <v>37</v>
+      </c>
+      <c r="L99" t="s">
+        <v>36</v>
+      </c>
+      <c r="M99" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="23"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23">
+        <f>J100*3</f>
+        <v>27000</v>
+      </c>
+      <c r="J100" s="23">
+        <v>9000</v>
+      </c>
+      <c r="K100">
+        <f>1/((1/J100)+(1/16000))</f>
+        <v>5760</v>
+      </c>
+      <c r="L100">
+        <f>K100*416/(K100+I100)</f>
+        <v>73.142857142857139</v>
+      </c>
+      <c r="M100">
+        <f>L100^2/(J100)</f>
+        <v>0.59443083900226756</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I101" s="1">
+        <f>J101*3</f>
+        <v>30000</v>
+      </c>
+      <c r="J101" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K101">
+        <f>1/((1/J101)+(1/16000))</f>
+        <v>6153.8461538461543</v>
+      </c>
+      <c r="L101">
+        <f>K101*416/(K101+I101)</f>
+        <v>70.808510638297861</v>
+      </c>
+      <c r="M101">
+        <f>L101^2/(J101)</f>
+        <v>0.50138451788139404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I102" s="23">
+        <f>J102*3</f>
+        <v>33000</v>
+      </c>
+      <c r="J102" s="1">
+        <v>11000</v>
+      </c>
+      <c r="K102">
+        <f>1/((1/J102)+(1/16000))</f>
+        <v>6518.5185185185182</v>
+      </c>
+      <c r="L102">
+        <f>K102*416/(K102+I102)</f>
+        <v>68.618556701030926</v>
+      </c>
+      <c r="M102">
+        <f>L102^2/(J102)</f>
+        <v>0.42804602943023595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I103" s="23">
+        <f>J103*3</f>
+        <v>36000</v>
+      </c>
+      <c r="J103" s="23">
+        <v>12000</v>
+      </c>
+      <c r="K103">
+        <f>1/((1/J103)+(1/16000))</f>
+        <v>6857.1428571428578</v>
+      </c>
+      <c r="L103">
+        <f>K103*416/(K103+I103)</f>
+        <v>66.56</v>
+      </c>
+      <c r="M103">
+        <f>L103^2/(J103)</f>
+        <v>0.36918613333333339</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I104" s="23">
+        <f>J104*3</f>
+        <v>39000</v>
+      </c>
+      <c r="J104" s="23">
+        <v>13000</v>
+      </c>
+      <c r="K104">
+        <f>1/((1/J104)+(1/16000))</f>
+        <v>7172.4137931034484</v>
+      </c>
+      <c r="L104">
+        <f>K104*416/(K104+I104)</f>
+        <v>64.621359223300971</v>
+      </c>
+      <c r="M104">
+        <f>L104^2/(J104)</f>
+        <v>0.32122462060514662</v>
       </c>
     </row>
   </sheetData>
